--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS6.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS6.xlsx
@@ -19,7 +19,226 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="144">
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
   <si>
     <t>Signal_Value_78</t>
   </si>
@@ -147,6 +366,15 @@
     <t>Signal_Value_119</t>
   </si>
   <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -219,10 +447,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -583,15 +808,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:DO6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:119">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -719,10 +944,238 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:119">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -731,106 +1184,106 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1675547101953932</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04743247506590542</v>
       </c>
       <c r="F2">
-        <v>0.01374874480539957</v>
+        <v>0.106898259259001</v>
       </c>
       <c r="G2">
-        <v>0.01024237419292466</v>
+        <v>0.0123211008148912</v>
       </c>
       <c r="H2">
-        <v>0.01615306205897459</v>
+        <v>1.565980902039036E-05</v>
       </c>
       <c r="I2">
-        <v>0.01601226662395502</v>
+        <v>0.003404369320475162</v>
       </c>
       <c r="J2">
-        <v>0.02071076342847742</v>
+        <v>0.03193644778959068</v>
       </c>
       <c r="K2">
-        <v>1.004389753283096E-05</v>
+        <v>0.1046692443428251</v>
       </c>
       <c r="L2">
-        <v>0.009394735460010606</v>
+        <v>0.02391724657819741</v>
       </c>
       <c r="M2">
-        <v>7.502649876819424E-05</v>
+        <v>0.001689957717186304</v>
       </c>
       <c r="N2">
-        <v>2.652676003615058E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.05596615742698781</v>
+        <v>0.06830180448940032</v>
       </c>
       <c r="P2">
-        <v>0.04205659483791969</v>
+        <v>0.01274472404090074</v>
       </c>
       <c r="Q2">
-        <v>0.005218140321673823</v>
+        <v>0.0561850097060729</v>
       </c>
       <c r="R2">
-        <v>0.05101895847801891</v>
+        <v>0.05715910956940193</v>
       </c>
       <c r="S2">
-        <v>0.04160081565640237</v>
+        <v>0.09490456821047637</v>
       </c>
       <c r="T2">
-        <v>0.05854423253764716</v>
+        <v>0.002516368071403968</v>
       </c>
       <c r="U2">
-        <v>0.06364721075434861</v>
+        <v>0.009722935112340849</v>
       </c>
       <c r="V2">
-        <v>3.041059258924638E-05</v>
+        <v>0.01901774961117486</v>
       </c>
       <c r="W2">
-        <v>0.09590831876651859</v>
+        <v>0.05513237849940421</v>
       </c>
       <c r="X2">
-        <v>0.1226741990892562</v>
+        <v>0.007600102235932519</v>
       </c>
       <c r="Y2">
-        <v>0.05893939637086552</v>
+        <v>0.01351293762147743</v>
       </c>
       <c r="Z2">
-        <v>0.02860232235378133</v>
+        <v>0.003178791914134692</v>
       </c>
       <c r="AA2">
-        <v>0.03593936389923767</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.00961787330323889</v>
+        <v>0.01415800514527404</v>
       </c>
       <c r="AC2">
-        <v>0.01476716305297338</v>
+        <v>0.003025223198123442</v>
       </c>
       <c r="AD2">
-        <v>0.05617127648278863</v>
+        <v>0.006460593386512945</v>
       </c>
       <c r="AE2">
-        <v>0.05255770899190667</v>
+        <v>0.007014730241309701</v>
       </c>
       <c r="AF2">
-        <v>0.03685382154848134</v>
+        <v>0.003246415591446595</v>
       </c>
       <c r="AG2">
-        <v>0.03800601396718777</v>
+        <v>0.05297176552875815</v>
       </c>
       <c r="AH2">
-        <v>0.02834476490824457</v>
+        <v>0.01207222731413839</v>
       </c>
       <c r="AI2">
-        <v>0.01212841732166101</v>
+        <v>0.001235089619830168</v>
       </c>
       <c r="AJ2">
-        <v>0.004314243041897539</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0007190525702942354</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -850,10 +1303,238 @@
       <c r="AQ2">
         <v>0</v>
       </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:119">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -886,105 +1567,333 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.003339120749585395</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.01140283044960985</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0006233517157955894</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.04398196547871602</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5.838583300454365E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0668260813035708</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.006112141047262575</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.03205299369570674</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.004189095394892446</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.02142818717116716</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01030339223069556</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.1025162195771179</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01547307466667585</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.04623283653466799</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.07579339148800056</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.04384151250881464</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.07170570773839875</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01991699194518843</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.03879615955890005</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.1161204641085276</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.06432738953308444</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01598193477323576</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0185321943267389</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.02167164359896297</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.001602493049590636</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.02992562015908724</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0349937428904077</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0262319693797002</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.02556207416970815</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0204757110788943</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.005060467626946113</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.004920856217345214</v>
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0.08014197763366966</v>
+      </c>
+      <c r="CK3">
+        <v>0.04050959538862273</v>
+      </c>
+      <c r="CL3">
+        <v>0.09076263440731297</v>
+      </c>
+      <c r="CM3">
+        <v>0.004069213171995318</v>
+      </c>
+      <c r="CN3">
+        <v>0.00777271691445884</v>
+      </c>
+      <c r="CO3">
+        <v>0.002214881933090139</v>
+      </c>
+      <c r="CP3">
+        <v>0.07621252302583076</v>
+      </c>
+      <c r="CQ3">
+        <v>0.1766662584894782</v>
+      </c>
+      <c r="CR3">
+        <v>0.005432970755085747</v>
+      </c>
+      <c r="CS3">
+        <v>0.0009250665137736795</v>
+      </c>
+      <c r="CT3">
+        <v>0.006819486029446101</v>
+      </c>
+      <c r="CU3">
+        <v>0.1106030172682014</v>
+      </c>
+      <c r="CV3">
+        <v>0.002280460903840118</v>
+      </c>
+      <c r="CW3">
+        <v>0.01164883263875387</v>
+      </c>
+      <c r="CX3">
+        <v>0.04309087435024878</v>
+      </c>
+      <c r="CY3">
+        <v>0.07172318877942063</v>
+      </c>
+      <c r="CZ3">
+        <v>0.01369245577044532</v>
+      </c>
+      <c r="DA3">
+        <v>0.007685812847187282</v>
+      </c>
+      <c r="DB3">
+        <v>0.07126157491606532</v>
+      </c>
+      <c r="DC3">
+        <v>0.04651655347110663</v>
+      </c>
+      <c r="DD3">
+        <v>0.004045138492771422</v>
+      </c>
+      <c r="DE3">
+        <v>0.03249861385855967</v>
+      </c>
+      <c r="DF3">
+        <v>0.001474621129448579</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0.003550103228008058</v>
+      </c>
+      <c r="DI3">
+        <v>0.01181861922538725</v>
+      </c>
+      <c r="DJ3">
+        <v>0.005148041834543537</v>
+      </c>
+      <c r="DK3">
+        <v>0.01705814426004293</v>
+      </c>
+      <c r="DL3">
+        <v>0.00341307664411241</v>
+      </c>
+      <c r="DM3">
+        <v>0.03912704560159093</v>
+      </c>
+      <c r="DN3">
+        <v>0.01183650051750161</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:119">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -996,100 +1905,100 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005772284753923568</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.01900712497401998</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000500194119430702</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.04207018380702536</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002333237691547049</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06055253163148078</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01204454520978475</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02081261528996839</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.009756066410991679</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.00288364113881076</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02144727075672597</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.07451604699548563</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.00300715948157985</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.05348844202914487</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.07751083834730084</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.06470607134450129</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.07484535041325961</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.008684027278087963</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.05129231486863613</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.1097631268546544</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.06600283083457782</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.02163922948474142</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01948473859306936</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01577128324217205</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002933561472278103</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.03515008549229764</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.04094249280252808</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.02839221010410812</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.02491538107748328</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.02036194231029255</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00747840123383031</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.004034683878654079</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1112,10 +2021,238 @@
       <c r="AQ4">
         <v>0</v>
       </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0.06207230677304817</v>
+      </c>
+      <c r="CK4">
+        <v>0.02065685316834839</v>
+      </c>
+      <c r="CL4">
+        <v>0.1446036012286737</v>
+      </c>
+      <c r="CM4">
+        <v>0.04735373352775183</v>
+      </c>
+      <c r="CN4">
+        <v>0.0008623212379172936</v>
+      </c>
+      <c r="CO4">
+        <v>0.008598743681410106</v>
+      </c>
+      <c r="CP4">
+        <v>0.02153683673271446</v>
+      </c>
+      <c r="CQ4">
+        <v>0.06896849404688661</v>
+      </c>
+      <c r="CR4">
+        <v>0.1067306124520866</v>
+      </c>
+      <c r="CS4">
+        <v>0.004714849339274118</v>
+      </c>
+      <c r="CT4">
+        <v>0.001209273646534675</v>
+      </c>
+      <c r="CU4">
+        <v>0.04688768450156113</v>
+      </c>
+      <c r="CV4">
+        <v>0.05222850187506629</v>
+      </c>
+      <c r="CW4">
+        <v>0.005340731268804624</v>
+      </c>
+      <c r="CX4">
+        <v>0.004239474632088933</v>
+      </c>
+      <c r="CY4">
+        <v>0.08990497664837811</v>
+      </c>
+      <c r="CZ4">
+        <v>0.02758227314461041</v>
+      </c>
+      <c r="DA4">
+        <v>0.01502900340189536</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0.1036719739358661</v>
+      </c>
+      <c r="DD4">
+        <v>0.02721454317683302</v>
+      </c>
+      <c r="DE4">
+        <v>0.0203056215885504</v>
+      </c>
+      <c r="DF4">
+        <v>0.02308888197429874</v>
+      </c>
+      <c r="DG4">
+        <v>0.001296763348667684</v>
+      </c>
+      <c r="DH4">
+        <v>0.00112884336476201</v>
+      </c>
+      <c r="DI4">
+        <v>0.0002548808128453487</v>
+      </c>
+      <c r="DJ4">
+        <v>0.03756598834429122</v>
+      </c>
+      <c r="DK4">
+        <v>0.00486633679460405</v>
+      </c>
+      <c r="DL4">
+        <v>0.01011177184757893</v>
+      </c>
+      <c r="DM4">
+        <v>0.01125303081005102</v>
+      </c>
+      <c r="DN4">
+        <v>0.02737887215958984</v>
+      </c>
+      <c r="DO4">
+        <v>0.003342220535010977</v>
+      </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:119">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1130,100 +2267,100 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.008728008998434268</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.02507263422214917</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01289643420972354</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03129740332048254</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02392990167773397</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002986225025134239</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02882904308469872</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0004318485928788114</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002103661829750575</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05064563778210137</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.02951939472489277</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.009586248915113069</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.06083347400161904</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.04840672711482143</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.04556502926537248</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.03575798386794482</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002503575427463422</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.09124143299326448</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.1174698381084471</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.05395362864592498</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.02788697124731312</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.03289223238922016</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003197098210413058</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02465588264121088</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.06006393790386888</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.05694066099081142</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.04486803050078302</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.04092341533863909</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.02155935278287282</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.006752371103699379</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.002940135193592196</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0001426780590212657</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1243,10 +2380,238 @@
       <c r="AQ5">
         <v>0</v>
       </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0.03328135322855731</v>
+      </c>
+      <c r="CJ5">
+        <v>0.00755514987658572</v>
+      </c>
+      <c r="CK5">
+        <v>0.0004114346352139903</v>
+      </c>
+      <c r="CL5">
+        <v>0.03272662519192105</v>
+      </c>
+      <c r="CM5">
+        <v>0.1125086590777755</v>
+      </c>
+      <c r="CN5">
+        <v>0.07528234573929944</v>
+      </c>
+      <c r="CO5">
+        <v>0.04315330977669424</v>
+      </c>
+      <c r="CP5">
+        <v>0.04813998108664808</v>
+      </c>
+      <c r="CQ5">
+        <v>0.002521828421421565</v>
+      </c>
+      <c r="CR5">
+        <v>0.013232385654073</v>
+      </c>
+      <c r="CS5">
+        <v>0.1779801445420871</v>
+      </c>
+      <c r="CT5">
+        <v>0.00351269130407343</v>
+      </c>
+      <c r="CU5">
+        <v>0.02262436520038633</v>
+      </c>
+      <c r="CV5">
+        <v>0.03969678047761963</v>
+      </c>
+      <c r="CW5">
+        <v>0.01417916210976932</v>
+      </c>
+      <c r="CX5">
+        <v>0.001362968847194198</v>
+      </c>
+      <c r="CY5">
+        <v>0.0006895714488788851</v>
+      </c>
+      <c r="CZ5">
+        <v>0.0621535842902579</v>
+      </c>
+      <c r="DA5">
+        <v>0.04863025043747084</v>
+      </c>
+      <c r="DB5">
+        <v>0.04000066326705391</v>
+      </c>
+      <c r="DC5">
+        <v>0.1194389295357118</v>
+      </c>
+      <c r="DD5">
+        <v>0.0006085164801156176</v>
+      </c>
+      <c r="DE5">
+        <v>0.001142436836671834</v>
+      </c>
+      <c r="DF5">
+        <v>0.008902235947370298</v>
+      </c>
+      <c r="DG5">
+        <v>0.007977096226222761</v>
+      </c>
+      <c r="DH5">
+        <v>0.01650995811769821</v>
+      </c>
+      <c r="DI5">
+        <v>0.03131562293399909</v>
+      </c>
+      <c r="DJ5">
+        <v>0.009606721612725262</v>
+      </c>
+      <c r="DK5">
+        <v>0.004439537085352283</v>
+      </c>
+      <c r="DL5">
+        <v>0.003948147067268471</v>
+      </c>
+      <c r="DM5">
+        <v>8.902000972974919E-05</v>
+      </c>
+      <c r="DN5">
+        <v>0.01637852353415321</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:119">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1255,100 +2620,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001678034927329427</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01179876298231188</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02816648187779574</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.008057752038563354</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03946716679815342</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.007257677879871256</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05794328714732704</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.007520170198699817</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0352692074255247</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.006456550293931079</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0004304305202626261</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02213190125344612</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0440154367654627</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>9.812265260535454E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.062661275522802</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0812954406489836</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.04325776132720478</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.02681758094617043</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0002398675642839783</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.06684741165151746</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.1199756396219378</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.06757689083969021</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.02350908091398338</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02414881067089015</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0120057953871464</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.007392091513950715</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0438221255766135</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.05243147267200539</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.03973937569821032</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.03292427491869705</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01943134881722801</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.00572108333474535</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1373,6 +2738,234 @@
       </c>
       <c r="AQ6">
         <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0.04617190878636019</v>
+      </c>
+      <c r="CK6">
+        <v>0.001016221358595654</v>
+      </c>
+      <c r="CL6">
+        <v>0.09112633445331418</v>
+      </c>
+      <c r="CM6">
+        <v>0.0007956042749379219</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0.05813355760616794</v>
+      </c>
+      <c r="CP6">
+        <v>0.1088122389180842</v>
+      </c>
+      <c r="CQ6">
+        <v>0.07181878236921631</v>
+      </c>
+      <c r="CR6">
+        <v>0.0005728046013103252</v>
+      </c>
+      <c r="CS6">
+        <v>0.007326313340818188</v>
+      </c>
+      <c r="CT6">
+        <v>0.05561384969184617</v>
+      </c>
+      <c r="CU6">
+        <v>0.0002531747228445503</v>
+      </c>
+      <c r="CV6">
+        <v>0.1846454915077993</v>
+      </c>
+      <c r="CW6">
+        <v>0.003121304392277104</v>
+      </c>
+      <c r="CX6">
+        <v>0.02194300247306262</v>
+      </c>
+      <c r="CY6">
+        <v>0.05910781872918863</v>
+      </c>
+      <c r="CZ6">
+        <v>0.0211539745122923</v>
+      </c>
+      <c r="DA6">
+        <v>0.01584087798862539</v>
+      </c>
+      <c r="DB6">
+        <v>0.001252352751336162</v>
+      </c>
+      <c r="DC6">
+        <v>0.08661316631909814</v>
+      </c>
+      <c r="DD6">
+        <v>0.01565009744776511</v>
+      </c>
+      <c r="DE6">
+        <v>0.01703637313833123</v>
+      </c>
+      <c r="DF6">
+        <v>0.002468580271979208</v>
+      </c>
+      <c r="DG6">
+        <v>0.007510266739451372</v>
+      </c>
+      <c r="DH6">
+        <v>0.02099446684254092</v>
+      </c>
+      <c r="DI6">
+        <v>0.005120930436348945</v>
+      </c>
+      <c r="DJ6">
+        <v>0.0452258693760436</v>
+      </c>
+      <c r="DK6">
+        <v>4.773960239297591E-05</v>
+      </c>
+      <c r="DL6">
+        <v>0.01576889028346485</v>
+      </c>
+      <c r="DM6">
+        <v>0.003433331116560372</v>
+      </c>
+      <c r="DN6">
+        <v>0.02868839849690389</v>
+      </c>
+      <c r="DO6">
+        <v>0.002736277451042244</v>
       </c>
     </row>
   </sheetData>
@@ -1382,15 +2975,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:DO6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:119">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1518,10 +3111,238 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:119">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1530,103 +3351,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1675547101953932</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2149871852612986</v>
       </c>
       <c r="F2">
-        <v>0.01374874480539957</v>
+        <v>0.3218854445202997</v>
       </c>
       <c r="G2">
-        <v>0.02399111899832423</v>
+        <v>0.3342065453351908</v>
       </c>
       <c r="H2">
-        <v>0.04014418105729883</v>
+        <v>0.3342222051442112</v>
       </c>
       <c r="I2">
-        <v>0.05615644768125384</v>
+        <v>0.3376265744646864</v>
       </c>
       <c r="J2">
-        <v>0.07686721110973127</v>
+        <v>0.3695630222542771</v>
       </c>
       <c r="K2">
-        <v>0.0768772550072641</v>
+        <v>0.4742322665971021</v>
       </c>
       <c r="L2">
-        <v>0.0862719904672747</v>
+        <v>0.4981495131752995</v>
       </c>
       <c r="M2">
-        <v>0.0863470169660429</v>
+        <v>0.4998394708924859</v>
       </c>
       <c r="N2">
-        <v>0.08637354372607904</v>
+        <v>0.4998394708924859</v>
       </c>
       <c r="O2">
-        <v>0.1423397011530668</v>
+        <v>0.5681412753818862</v>
       </c>
       <c r="P2">
-        <v>0.1843962959909865</v>
+        <v>0.580885999422787</v>
       </c>
       <c r="Q2">
-        <v>0.1896144363126603</v>
+        <v>0.6370710091288598</v>
       </c>
       <c r="R2">
-        <v>0.2406333947906792</v>
+        <v>0.6942301186982618</v>
       </c>
       <c r="S2">
-        <v>0.2822342104470816</v>
+        <v>0.7891346869087381</v>
       </c>
       <c r="T2">
-        <v>0.3407784429847288</v>
+        <v>0.7916510549801421</v>
       </c>
       <c r="U2">
-        <v>0.4044256537390774</v>
+        <v>0.801373990092483</v>
       </c>
       <c r="V2">
-        <v>0.4044560643316666</v>
+        <v>0.8203917397036579</v>
       </c>
       <c r="W2">
-        <v>0.5003643830981852</v>
+        <v>0.8755241182030621</v>
       </c>
       <c r="X2">
-        <v>0.6230385821874415</v>
+        <v>0.8831242204389946</v>
       </c>
       <c r="Y2">
-        <v>0.681977978558307</v>
+        <v>0.8966371580604721</v>
       </c>
       <c r="Z2">
-        <v>0.7105803009120883</v>
+        <v>0.8998159499746068</v>
       </c>
       <c r="AA2">
-        <v>0.746519664811326</v>
+        <v>0.8998159499746068</v>
       </c>
       <c r="AB2">
-        <v>0.756137538114565</v>
+        <v>0.9139739551198808</v>
       </c>
       <c r="AC2">
-        <v>0.7709047011675384</v>
+        <v>0.9169991783180043</v>
       </c>
       <c r="AD2">
-        <v>0.827075977650327</v>
+        <v>0.9234597717045172</v>
       </c>
       <c r="AE2">
-        <v>0.8796336866422337</v>
+        <v>0.9304745019458269</v>
       </c>
       <c r="AF2">
-        <v>0.9164875081907151</v>
+        <v>0.9337209175372735</v>
       </c>
       <c r="AG2">
-        <v>0.9544935221579028</v>
+        <v>0.9866926830660316</v>
       </c>
       <c r="AH2">
-        <v>0.9828382870661474</v>
+        <v>0.99876491038017</v>
       </c>
       <c r="AI2">
-        <v>0.9949667043878084</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.999280947429706</v>
+        <v>1</v>
       </c>
       <c r="AK2">
         <v>1</v>
@@ -1649,10 +3470,238 @@
       <c r="AQ2">
         <v>1</v>
       </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:119">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1685,105 +3734,333 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.003339120749585395</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.01474195119919524</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.01536530291499083</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.05934726839370685</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.05940565422671139</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.1262317355302822</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1323438765775448</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1643968702732515</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.168585965668144</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.1900141528393111</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.2003175450700067</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.3028337646471246</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.3183068393138005</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.3645396758484685</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.440333067336469</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.4841745798452837</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.5558802875836825</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.5757972795288709</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.614593439087771</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.7307139031962986</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.7950412927293831</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8110232275026188</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.8295554218293577</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.8512270654283207</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.8528295584779113</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.8827551786369986</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.9177489215274063</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.9439808909071065</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.9695429650768146</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.9900186761557089</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.9950791437826551</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0.08014197763366966</v>
+      </c>
+      <c r="CK3">
+        <v>0.1206515730222924</v>
+      </c>
+      <c r="CL3">
+        <v>0.2114142074296054</v>
+      </c>
+      <c r="CM3">
+        <v>0.2154834206016007</v>
+      </c>
+      <c r="CN3">
+        <v>0.2232561375160595</v>
+      </c>
+      <c r="CO3">
+        <v>0.2254710194491497</v>
+      </c>
+      <c r="CP3">
+        <v>0.3016835424749804</v>
+      </c>
+      <c r="CQ3">
+        <v>0.4783498009644586</v>
+      </c>
+      <c r="CR3">
+        <v>0.4837827717195443</v>
+      </c>
+      <c r="CS3">
+        <v>0.484707838233318</v>
+      </c>
+      <c r="CT3">
+        <v>0.4915273242627641</v>
+      </c>
+      <c r="CU3">
+        <v>0.6021303415309655</v>
+      </c>
+      <c r="CV3">
+        <v>0.6044108024348056</v>
+      </c>
+      <c r="CW3">
+        <v>0.6160596350735594</v>
+      </c>
+      <c r="CX3">
+        <v>0.6591505094238083</v>
+      </c>
+      <c r="CY3">
+        <v>0.7308736982032289</v>
+      </c>
+      <c r="CZ3">
+        <v>0.7445661539736742</v>
+      </c>
+      <c r="DA3">
+        <v>0.7522519668208615</v>
+      </c>
+      <c r="DB3">
+        <v>0.8235135417369268</v>
+      </c>
+      <c r="DC3">
+        <v>0.8700300952080334</v>
+      </c>
+      <c r="DD3">
+        <v>0.8740752337008049</v>
+      </c>
+      <c r="DE3">
+        <v>0.9065738475593645</v>
+      </c>
+      <c r="DF3">
+        <v>0.9080484686888132</v>
+      </c>
+      <c r="DG3">
+        <v>0.9080484686888132</v>
+      </c>
+      <c r="DH3">
+        <v>0.9115985719168213</v>
+      </c>
+      <c r="DI3">
+        <v>0.9234171911422085</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9285652329767521</v>
+      </c>
+      <c r="DK3">
+        <v>0.945623377236795</v>
+      </c>
+      <c r="DL3">
+        <v>0.9490364538809074</v>
+      </c>
+      <c r="DM3">
+        <v>0.9881634994824984</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:119">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1795,126 +4072,354 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005772284753923568</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.02477940972794354</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02527960384737424</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.06734978765439961</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06758311142355432</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1281356430550351</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1401801882648199</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1609928035547883</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1707488699657799</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1736325111045907</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1950797818613167</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2695958288568023</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.2726029883383821</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.326091430367527</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4036022687148278</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.4683083400593291</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.5431536904725888</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.5518377177506767</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.6031300326193129</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.7128931594739674</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.7788959903085452</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.8005352197932866</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.8200199583863559</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.8357912416285279</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.838724803100806</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.8738748885931036</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9148173813956316</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9432095914997397</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.968124972577223</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9884869148875155</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.9959653161213458</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0.06207230677304817</v>
+      </c>
+      <c r="CK4">
+        <v>0.08272915994139657</v>
+      </c>
+      <c r="CL4">
+        <v>0.2273327611700702</v>
+      </c>
+      <c r="CM4">
+        <v>0.2746864946978221</v>
+      </c>
+      <c r="CN4">
+        <v>0.2755488159357394</v>
+      </c>
+      <c r="CO4">
+        <v>0.2841475596171495</v>
+      </c>
+      <c r="CP4">
+        <v>0.3056843963498639</v>
+      </c>
+      <c r="CQ4">
+        <v>0.3746528903967505</v>
+      </c>
+      <c r="CR4">
+        <v>0.4813835028488371</v>
+      </c>
+      <c r="CS4">
+        <v>0.4860983521881113</v>
+      </c>
+      <c r="CT4">
+        <v>0.4873076258346459</v>
+      </c>
+      <c r="CU4">
+        <v>0.534195310336207</v>
+      </c>
+      <c r="CV4">
+        <v>0.5864238122112734</v>
+      </c>
+      <c r="CW4">
+        <v>0.591764543480078</v>
+      </c>
+      <c r="CX4">
+        <v>0.596004018112167</v>
+      </c>
+      <c r="CY4">
+        <v>0.6859089947605451</v>
+      </c>
+      <c r="CZ4">
+        <v>0.7134912679051555</v>
+      </c>
+      <c r="DA4">
+        <v>0.7285202713070509</v>
+      </c>
+      <c r="DB4">
+        <v>0.7285202713070509</v>
+      </c>
+      <c r="DC4">
+        <v>0.832192245242917</v>
+      </c>
+      <c r="DD4">
+        <v>0.85940678841975</v>
+      </c>
+      <c r="DE4">
+        <v>0.8797124100083005</v>
+      </c>
+      <c r="DF4">
+        <v>0.9028012919825992</v>
+      </c>
+      <c r="DG4">
+        <v>0.9040980553312669</v>
+      </c>
+      <c r="DH4">
+        <v>0.9052268986960289</v>
+      </c>
+      <c r="DI4">
+        <v>0.9054817795088742</v>
+      </c>
+      <c r="DJ4">
+        <v>0.9430477678531655</v>
+      </c>
+      <c r="DK4">
+        <v>0.9479141046477695</v>
+      </c>
+      <c r="DL4">
+        <v>0.9580258764953484</v>
+      </c>
+      <c r="DM4">
+        <v>0.9692789073053995</v>
+      </c>
+      <c r="DN4">
+        <v>0.9966577794649893</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:119">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1929,249 +4434,705 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.008728008998434268</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.03380064322058343</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.04669707743030697</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.07799448075078952</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1019243824285235</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1022230049310369</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1310520480157356</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1314838966086144</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1316942627915895</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1823399005736909</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2118592952985836</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.2214455442136967</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.2822790182153158</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3306857453301372</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.3762507745955097</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.4120087584634545</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.4145123338909179</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.5057537668841824</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.6232236049926295</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.6771772336385545</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.7050642048858676</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.7379564372750878</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.7411535354855008</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.7658094181267117</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.8258733560305805</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.882814017021392</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.927682047522175</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.9686054628608141</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.9901648156436869</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.9969171867473863</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.9998573219409784</v>
+        <v>0</v>
       </c>
       <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0.03328135322855731</v>
+      </c>
+      <c r="CJ5">
+        <v>0.04083650310514303</v>
+      </c>
+      <c r="CK5">
+        <v>0.04124793774035702</v>
+      </c>
+      <c r="CL5">
+        <v>0.07397456293227807</v>
+      </c>
+      <c r="CM5">
+        <v>0.1864832220100535</v>
+      </c>
+      <c r="CN5">
+        <v>0.2617655677493529</v>
+      </c>
+      <c r="CO5">
+        <v>0.3049188775260472</v>
+      </c>
+      <c r="CP5">
+        <v>0.3530588586126953</v>
+      </c>
+      <c r="CQ5">
+        <v>0.3555806870341168</v>
+      </c>
+      <c r="CR5">
+        <v>0.3688130726881898</v>
+      </c>
+      <c r="CS5">
+        <v>0.5467932172302769</v>
+      </c>
+      <c r="CT5">
+        <v>0.5503059085343502</v>
+      </c>
+      <c r="CU5">
+        <v>0.5729302737347366</v>
+      </c>
+      <c r="CV5">
+        <v>0.6126270542123562</v>
+      </c>
+      <c r="CW5">
+        <v>0.6268062163221255</v>
+      </c>
+      <c r="CX5">
+        <v>0.6281691851693197</v>
+      </c>
+      <c r="CY5">
+        <v>0.6288587566181987</v>
+      </c>
+      <c r="CZ5">
+        <v>0.6910123409084565</v>
+      </c>
+      <c r="DA5">
+        <v>0.7396425913459274</v>
+      </c>
+      <c r="DB5">
+        <v>0.7796432546129812</v>
+      </c>
+      <c r="DC5">
+        <v>0.899082184148693</v>
+      </c>
+      <c r="DD5">
+        <v>0.8996907006288086</v>
+      </c>
+      <c r="DE5">
+        <v>0.9008331374654804</v>
+      </c>
+      <c r="DF5">
+        <v>0.9097353734128507</v>
+      </c>
+      <c r="DG5">
+        <v>0.9177124696390735</v>
+      </c>
+      <c r="DH5">
+        <v>0.9342224277567717</v>
+      </c>
+      <c r="DI5">
+        <v>0.9655380506907708</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9751447723034961</v>
+      </c>
+      <c r="DK5">
+        <v>0.9795843093888483</v>
+      </c>
+      <c r="DL5">
+        <v>0.9835324564561168</v>
+      </c>
+      <c r="DM5">
+        <v>0.9836214764658465</v>
+      </c>
+      <c r="DN5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DO5">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:119">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0.04617190878636019</v>
+      </c>
+      <c r="CK6">
+        <v>0.04718813014495584</v>
+      </c>
+      <c r="CL6">
+        <v>0.13831446459827</v>
+      </c>
+      <c r="CM6">
+        <v>0.1391100688732079</v>
+      </c>
+      <c r="CN6">
+        <v>0.1391100688732079</v>
+      </c>
+      <c r="CO6">
+        <v>0.1972436264793759</v>
+      </c>
+      <c r="CP6">
+        <v>0.3060558653974601</v>
+      </c>
+      <c r="CQ6">
+        <v>0.3778746477666764</v>
+      </c>
+      <c r="CR6">
+        <v>0.3784474523679867</v>
+      </c>
+      <c r="CS6">
+        <v>0.3857737657088049</v>
+      </c>
+      <c r="CT6">
+        <v>0.4413876154006511</v>
+      </c>
+      <c r="CU6">
+        <v>0.4416407901234956</v>
+      </c>
+      <c r="CV6">
+        <v>0.6262862816312948</v>
+      </c>
+      <c r="CW6">
+        <v>0.6294075860235719</v>
+      </c>
+      <c r="CX6">
+        <v>0.6513505884966345</v>
+      </c>
+      <c r="CY6">
+        <v>0.7104584072258231</v>
+      </c>
+      <c r="CZ6">
+        <v>0.7316123817381154</v>
+      </c>
+      <c r="DA6">
+        <v>0.7474532597267408</v>
+      </c>
+      <c r="DB6">
+        <v>0.748705612478077</v>
+      </c>
+      <c r="DC6">
+        <v>0.8353187787971751</v>
+      </c>
+      <c r="DD6">
+        <v>0.8509688762449402</v>
+      </c>
+      <c r="DE6">
+        <v>0.8680052493832714</v>
+      </c>
+      <c r="DF6">
+        <v>0.8704738296552506</v>
+      </c>
+      <c r="DG6">
+        <v>0.8779840963947019</v>
+      </c>
+      <c r="DH6">
+        <v>0.8989785632372428</v>
+      </c>
+      <c r="DI6">
+        <v>0.9040994936735918</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9493253630496353</v>
+      </c>
+      <c r="DK6">
+        <v>0.9493731026520283</v>
+      </c>
+      <c r="DL6">
+        <v>0.9651419929354932</v>
+      </c>
+      <c r="DM6">
+        <v>0.9685753240520536</v>
+      </c>
+      <c r="DN6">
+        <v>0.9972637225489575</v>
+      </c>
+      <c r="DO6">
         <v>0.9999999999999997</v>
-      </c>
-      <c r="AL5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AM5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AN5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AO5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AP5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AQ5">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.001678034927329427</v>
-      </c>
-      <c r="E6">
-        <v>0.01347679790964131</v>
-      </c>
-      <c r="F6">
-        <v>0.04164327978743705</v>
-      </c>
-      <c r="G6">
-        <v>0.04970103182600041</v>
-      </c>
-      <c r="H6">
-        <v>0.08916819862415383</v>
-      </c>
-      <c r="I6">
-        <v>0.09642587650402509</v>
-      </c>
-      <c r="J6">
-        <v>0.1543691636513521</v>
-      </c>
-      <c r="K6">
-        <v>0.1618893338500519</v>
-      </c>
-      <c r="L6">
-        <v>0.1971585412755766</v>
-      </c>
-      <c r="M6">
-        <v>0.2036150915695077</v>
-      </c>
-      <c r="N6">
-        <v>0.2040455220897703</v>
-      </c>
-      <c r="O6">
-        <v>0.2261774233432165</v>
-      </c>
-      <c r="P6">
-        <v>0.2701928601086792</v>
-      </c>
-      <c r="Q6">
-        <v>0.2702026723739397</v>
-      </c>
-      <c r="R6">
-        <v>0.3328639478967417</v>
-      </c>
-      <c r="S6">
-        <v>0.4141593885457253</v>
-      </c>
-      <c r="T6">
-        <v>0.45741714987293</v>
-      </c>
-      <c r="U6">
-        <v>0.4842347308191005</v>
-      </c>
-      <c r="V6">
-        <v>0.4844745983833844</v>
-      </c>
-      <c r="W6">
-        <v>0.5513220100349019</v>
-      </c>
-      <c r="X6">
-        <v>0.6712976496568397</v>
-      </c>
-      <c r="Y6">
-        <v>0.7388745404965299</v>
-      </c>
-      <c r="Z6">
-        <v>0.7623836214105133</v>
-      </c>
-      <c r="AA6">
-        <v>0.7865324320814034</v>
-      </c>
-      <c r="AB6">
-        <v>0.7985382274685499</v>
-      </c>
-      <c r="AC6">
-        <v>0.8059303189825006</v>
-      </c>
-      <c r="AD6">
-        <v>0.849752444559114</v>
-      </c>
-      <c r="AE6">
-        <v>0.9021839172311195</v>
-      </c>
-      <c r="AF6">
-        <v>0.9419232929293297</v>
-      </c>
-      <c r="AG6">
-        <v>0.9748475678480268</v>
-      </c>
-      <c r="AH6">
-        <v>0.9942789166652548</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
-        <v>1</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2189,302 +5150,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>0.01374874480539957</v>
+        <v>0.1675547101953932</v>
       </c>
       <c r="F2">
-        <v>0.5003643830981852</v>
+        <v>0.5681412753818862</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L2">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>0.01474195119919524</v>
+        <v>0.08014197763366966</v>
       </c>
       <c r="F3">
-        <v>0.5558802875836825</v>
+        <v>0.6021303415309655</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L3">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>0.02477940972794354</v>
+        <v>0.08272915994139657</v>
       </c>
       <c r="F4">
-        <v>0.5431536904725888</v>
+        <v>0.534195310336207</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L4">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <v>0.1864832220100535</v>
+      </c>
+      <c r="F5">
+        <v>0.5467932172302769</v>
+      </c>
+      <c r="G5">
         <v>6</v>
-      </c>
-      <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>0.03380064322058343</v>
-      </c>
-      <c r="F5">
-        <v>0.5057537668841824</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L5">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.01347679790964131</v>
+        <v>0.13831446459827</v>
       </c>
       <c r="F6">
-        <v>0.5513220100349019</v>
+        <v>0.6262862816312948</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L6">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2502,302 +5448,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.01374874480539957</v>
+        <v>0.1675547101953932</v>
       </c>
       <c r="F2">
-        <v>0.7105803009120883</v>
+        <v>0.7891346869087381</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L2">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.01474195119919524</v>
+        <v>0.08014197763366966</v>
       </c>
       <c r="F3">
-        <v>0.7307139031962986</v>
+        <v>0.7308736982032289</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L3">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>0.02477940972794354</v>
+        <v>0.08272915994139657</v>
       </c>
       <c r="F4">
-        <v>0.7128931594739674</v>
+        <v>0.7134912679051555</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L4">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.03380064322058343</v>
+        <v>0.1864832220100535</v>
       </c>
       <c r="F5">
-        <v>0.7050642048858676</v>
+        <v>0.7396425913459274</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L5">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.01347679790964131</v>
+        <v>0.13831446459827</v>
       </c>
       <c r="F6">
-        <v>0.7388745404965299</v>
+        <v>0.7104584072258231</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L6">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2815,302 +5746,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>0.01374874480539957</v>
+        <v>0.1675547101953932</v>
       </c>
       <c r="F2">
-        <v>0.827075977650327</v>
+        <v>0.801373990092483</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L2">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0.01474195119919524</v>
+        <v>0.08014197763366966</v>
       </c>
       <c r="F3">
-        <v>0.8110232275026188</v>
+        <v>0.8235135417369268</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L3">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.02477940972794354</v>
+        <v>0.08272915994139657</v>
       </c>
       <c r="F4">
-        <v>0.8005352197932866</v>
+        <v>0.832192245242917</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L4">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.03380064322058343</v>
+        <v>0.1864832220100535</v>
       </c>
       <c r="F5">
-        <v>0.8258733560305805</v>
+        <v>0.899082184148693</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L5">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.01347679790964131</v>
+        <v>0.13831446459827</v>
       </c>
       <c r="F6">
-        <v>0.8059303189825006</v>
+        <v>0.8353187787971751</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L6">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3128,302 +6044,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0.01374874480539957</v>
+        <v>0.1675547101953932</v>
       </c>
       <c r="F2">
-        <v>0.9164875081907151</v>
+        <v>0.9139739551198808</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L2">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>0.01474195119919524</v>
+        <v>0.08014197763366966</v>
       </c>
       <c r="F3">
-        <v>0.9177489215274063</v>
+        <v>0.9065738475593645</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L3">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="E4">
-        <v>0.02477940972794354</v>
+        <v>0.08272915994139657</v>
       </c>
       <c r="F4">
-        <v>0.9148173813956316</v>
+        <v>0.9028012919825992</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L4">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.03380064322058343</v>
+        <v>0.1864832220100535</v>
       </c>
       <c r="F5">
-        <v>0.927682047522175</v>
+        <v>0.9008331374654804</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L5">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E6">
-        <v>0.01347679790964131</v>
+        <v>0.13831446459827</v>
       </c>
       <c r="F6">
-        <v>0.9021839172311195</v>
+        <v>0.9040994936735918</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L6">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
